--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -1,101 +1,439 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:30</t>
   </si>
   <si>
     <t>1.领域实体改造 @table, @entity；
 2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.2</t>
+  </si>
+  <si>
+    <t>配置项目里的依赖以便能建好实体类</t>
+  </si>
+  <si>
+    <t>我系统重装忘记备份了，所以要从头再来。。。。。</t>
+  </si>
+  <si>
+    <t>从头再来的过程中以前的一些东西忘记了。后续会继续配置环境，就当复习一遍</t>
+  </si>
+  <si>
+    <t>2018.5。3</t>
+  </si>
+  <si>
+    <t>准备配置tomcat跟maven，配置依赖</t>
+  </si>
+  <si>
+    <t>通过百度已经配置好tomcat跟maven了。一切准备就绪</t>
+  </si>
+  <si>
+    <t>要下载老师的dream工程，之后准备建好实体类</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,9 +441,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -114,17 +694,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,24 +1006,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -408,81 +1027,102 @@
     <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="60.75" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>43216</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="9.375"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="77.25" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>日期</t>
   </si>
@@ -57,7 +57,7 @@
     <t>从头再来的过程中以前的一些东西忘记了。后续会继续配置环境，就当复习一遍</t>
   </si>
   <si>
-    <t>2018.5。3</t>
+    <t>2018.5.3</t>
   </si>
   <si>
     <t>准备配置tomcat跟maven，配置依赖</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>要下载老师的dream工程，之后准备建好实体类</t>
+  </si>
+  <si>
+    <t>2018.5.4</t>
+  </si>
+  <si>
+    <t>今天准备一切就绪建好实体类，深入了解一下git</t>
   </si>
 </sst>
 </file>
@@ -74,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,9 +101,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,39 +131,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -155,38 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +216,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,25 +253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +319,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,108 +415,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,30 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +438,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,7 +480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +518,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -524,166 +538,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,13 +1064,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -1121,6 +1120,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -39,40 +39,64 @@
 2.数据库表自动生成；</t>
   </si>
   <si>
+    <t>2018.5.2</t>
+  </si>
+  <si>
+    <t>2：00-4：00</t>
+  </si>
+  <si>
+    <t>配置项目里的依赖以便能建好实体类</t>
+  </si>
+  <si>
+    <t>我系统重装忘记备份了，所以要从头再来。。。。。</t>
+  </si>
+  <si>
+    <t>从头再来的过程中以前的一些东西忘记了。后续会继续配置环境，就当复习一遍</t>
+  </si>
+  <si>
+    <t>2018.5.3</t>
+  </si>
+  <si>
+    <t>9：00-11：00</t>
+  </si>
+  <si>
+    <t>准备配置tomcat跟maven，配置依赖</t>
+  </si>
+  <si>
+    <t>通过百度已经配置好tomcat跟maven了。一切准备就绪</t>
+  </si>
+  <si>
+    <t>要下载老师的dream工程，之后准备建好实体类</t>
+  </si>
+  <si>
+    <t>2018.5.4</t>
+  </si>
+  <si>
+    <t>4：00-6：00</t>
+  </si>
+  <si>
+    <t>今天准备一切就绪建好实体类，深入了解一下git</t>
+  </si>
+  <si>
+    <t>实体类还没建好，依赖可能有的没加进来</t>
+  </si>
+  <si>
+    <t>准备把dream里的依赖加进来</t>
+  </si>
+  <si>
     <t>周次</t>
   </si>
   <si>
     <t>执行情况</t>
   </si>
   <si>
-    <t>2018.5.2</t>
-  </si>
-  <si>
-    <t>配置项目里的依赖以便能建好实体类</t>
-  </si>
-  <si>
-    <t>我系统重装忘记备份了，所以要从头再来。。。。。</t>
-  </si>
-  <si>
-    <t>从头再来的过程中以前的一些东西忘记了。后续会继续配置环境，就当复习一遍</t>
-  </si>
-  <si>
-    <t>2018.5.3</t>
-  </si>
-  <si>
-    <t>准备配置tomcat跟maven，配置依赖</t>
-  </si>
-  <si>
-    <t>通过百度已经配置好tomcat跟maven了。一切准备就绪</t>
-  </si>
-  <si>
-    <t>要下载老师的dream工程，之后准备建好实体类</t>
-  </si>
-  <si>
-    <t>2018.5.4</t>
-  </si>
-  <si>
-    <t>今天准备一切就绪建好实体类，深入了解一下git</t>
+    <t>创好实体类</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>自己去图书馆查资料，学习spring</t>
   </si>
 </sst>
 </file>
@@ -80,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,29 +119,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,47 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,57 +178,89 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,181 +271,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +462,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,31 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +526,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,23 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,19 +1035,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1052,6 +1076,57 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1139,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -1080,52 +1155,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="77.25" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>准备把dream里的依赖加进来</t>
+  </si>
+  <si>
+    <t>2018.5.5</t>
+  </si>
+  <si>
+    <t>1：00-3：00</t>
+  </si>
+  <si>
+    <t>看工具书</t>
+  </si>
+  <si>
+    <t>复习javaSE内容</t>
   </si>
   <si>
     <t>周次</t>
@@ -105,8 +117,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -119,27 +131,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -148,7 +139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +154,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,80 +183,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +205,74 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,56 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,8 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -562,16 +548,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1127,6 +1139,23 @@
       </c>
       <c r="E5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1141,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1155,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1172,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>复习javaSE内容</t>
+  </si>
+  <si>
+    <t>2018.5.6</t>
+  </si>
+  <si>
+    <t>5：00-8：00</t>
+  </si>
+  <si>
+    <t>看老师的dream工程，了解一下pom里的依赖跟注解</t>
+  </si>
+  <si>
+    <t>百度注解查工具书</t>
+  </si>
+  <si>
+    <t>注解有的不会用。准备明天继续</t>
   </si>
   <si>
     <t>周次</t>
@@ -116,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -131,6 +146,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -139,7 +161,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,16 +205,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +251,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,74 +288,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,25 +298,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,121 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +489,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,15 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +552,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,177 +589,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1156,6 +1171,23 @@
       </c>
       <c r="E6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1202,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1184,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1201,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>注解有的不会用。准备明天继续</t>
+  </si>
+  <si>
+    <t>2018.5.7</t>
+  </si>
+  <si>
+    <t>7：30-10：30</t>
+  </si>
+  <si>
+    <t>看了第13章关于spring bean的内容</t>
+  </si>
+  <si>
+    <t>不是特别懂。准备实际操作一下</t>
   </si>
   <si>
     <t>周次</t>
@@ -131,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,45 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,22 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -229,15 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,20 +227,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,6 +237,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,17 +504,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +543,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -571,34 +601,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1190,6 +1202,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1200,13 +1229,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -1216,13 +1245,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1233,13 +1262,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>不是特别懂。准备实际操作一下</t>
+  </si>
+  <si>
+    <t>2018.5.8</t>
+  </si>
+  <si>
+    <t>4：00-7:00</t>
+  </si>
+  <si>
+    <t>学习jdbc</t>
+  </si>
+  <si>
+    <t>看了 工具书第8章的内容</t>
+  </si>
+  <si>
+    <t>跟博客结合一波感觉还可以，已经成功连接</t>
   </si>
   <si>
     <t>周次</t>
@@ -143,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -165,6 +180,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -180,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,56 +270,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,37 +325,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,145 +439,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +530,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,21 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -601,16 +607,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,13 +1089,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1217,6 +1232,23 @@
       </c>
       <c r="E8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1277,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1262,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>跟博客结合一波感觉还可以，已经成功连接</t>
+  </si>
+  <si>
+    <t>2018.5.11</t>
+  </si>
+  <si>
+    <t>7：00-8：30</t>
+  </si>
+  <si>
+    <t>根据老师上课上传的JPA操作JDBC数据库</t>
+  </si>
+  <si>
+    <t>连接数据库</t>
+  </si>
+  <si>
+    <t>成功连接，并且学习传统的JDBC数据库</t>
   </si>
   <si>
     <t>周次</t>
@@ -173,23 +188,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +241,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,47 +293,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,97 +340,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,85 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +534,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -569,6 +580,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,36 +631,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1249,6 +1264,23 @@
       </c>
       <c r="E9" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1277,13 +1309,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1294,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/doc/log_201508040222_yangming.xlsx
+++ b/doc/log_201508040222_yangming.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>日期</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>成功连接，并且学习传统的JDBC数据库</t>
+  </si>
+  <si>
+    <t>2018.5.12</t>
+  </si>
+  <si>
+    <t>看博客</t>
+  </si>
+  <si>
+    <t>等补课</t>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+  </si>
+  <si>
+    <t>2018.5.14</t>
+  </si>
+  <si>
+    <t>复习javaSE</t>
+  </si>
+  <si>
+    <t>看视频</t>
   </si>
   <si>
     <t>周次</t>
@@ -188,29 +209,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +238,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +285,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -293,6 +307,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -304,28 +347,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,181 +361,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +579,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,21 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -617,16 +638,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -637,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1281,6 +1302,57 @@
       </c>
       <c r="E10" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1309,13 +1381,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1326,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
